--- a/Material-coord/BV_cutoff_min_percent_variance.xlsx
+++ b/Material-coord/BV_cutoff_min_percent_variance.xlsx
@@ -5,59 +5,24 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Study\Github\Projects\Coord\Material-coord\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Study\softBV_mix\GitHub\projects\Coord\Material-coord\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE30ED81-8975-49C4-86A0-6A93996154EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F883C63-BCD8-4F86-909B-3034C91FA907}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31704" yWindow="684" windowWidth="13824" windowHeight="7176" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-1620" windowWidth="21840" windowHeight="13140" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="all" sheetId="1" r:id="rId1"/>
     <sheet name="cat" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="10">
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>4.25</t>
-  </si>
-  <si>
-    <t>4.5</t>
-  </si>
-  <si>
-    <t>4.75</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>0.02</t>
-  </si>
-  <si>
-    <t>0.025</t>
-  </si>
-  <si>
-    <t>0.03</t>
-  </si>
-  <si>
-    <t>0.035</t>
-  </si>
-  <si>
-    <t>0.04</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -73,16 +38,29 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FFABB2BF"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF21252B"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -105,13 +83,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -452,32 +447,40 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:F5"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B1" s="2">
+        <v>0.02</v>
+      </c>
+      <c r="C1" s="2">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="D1" s="2">
+        <v>0.03</v>
+      </c>
+      <c r="E1" s="2">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="F1" s="2">
+        <v>0.04</v>
+      </c>
+      <c r="G1" s="2">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="H1" s="2">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
         <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>5</v>
       </c>
       <c r="B2">
         <v>147</v>
@@ -494,10 +497,16 @@
       <c r="F2">
         <v>84</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>6</v>
+      <c r="G2">
+        <v>92</v>
+      </c>
+      <c r="H2">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>4.25</v>
       </c>
       <c r="B3">
         <v>141</v>
@@ -514,10 +523,16 @@
       <c r="F3">
         <v>78</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>7</v>
+      <c r="G3">
+        <v>86</v>
+      </c>
+      <c r="H3">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>4.5</v>
       </c>
       <c r="B4">
         <v>119</v>
@@ -534,10 +549,16 @@
       <c r="F4">
         <v>56</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
-        <v>8</v>
+      <c r="G4">
+        <v>64</v>
+      </c>
+      <c r="H4">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>4.75</v>
       </c>
       <c r="B5">
         <v>115</v>
@@ -554,10 +575,16 @@
       <c r="F5">
         <v>52</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
-        <v>9</v>
+      <c r="G5">
+        <v>60</v>
+      </c>
+      <c r="H5">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>5</v>
       </c>
       <c r="B6">
         <v>115</v>
@@ -574,42 +601,119 @@
       <c r="F6">
         <v>52</v>
       </c>
+      <c r="G6">
+        <v>60</v>
+      </c>
+      <c r="H6">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
+        <v>5.25</v>
+      </c>
+      <c r="B7">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>5.5</v>
+      </c>
+      <c r="B8">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
+        <v>5.75</v>
+      </c>
+      <c r="B9">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>6</v>
+      </c>
+      <c r="B10">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>6.25</v>
+      </c>
+      <c r="B11">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="3">
+        <v>6.5</v>
+      </c>
+      <c r="B12">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>6.75</v>
+      </c>
+      <c r="B13">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>7</v>
+      </c>
+      <c r="B14">
+        <v>101</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04D55DAF-2E45-46F6-AE05-6EF105648C7B}">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+      <selection activeCell="B2" sqref="B2:E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B1" s="1">
+        <v>0.02</v>
+      </c>
+      <c r="C1" s="1">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="D1" s="1">
+        <v>0.03</v>
+      </c>
+      <c r="E1" s="1">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="F1" s="1">
+        <v>0.04</v>
+      </c>
+      <c r="G1" s="3">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="H1" s="3">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
         <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>5</v>
       </c>
       <c r="B2">
         <v>66</v>
@@ -626,10 +730,16 @@
       <c r="F2">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>6</v>
+      <c r="G2">
+        <v>11</v>
+      </c>
+      <c r="H2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>4.25</v>
       </c>
       <c r="B3">
         <v>66</v>
@@ -646,10 +756,16 @@
       <c r="F3">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>7</v>
+      <c r="G3">
+        <v>11</v>
+      </c>
+      <c r="H3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>4.5</v>
       </c>
       <c r="B4">
         <v>66</v>
@@ -666,10 +782,16 @@
       <c r="F4">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
-        <v>8</v>
+      <c r="G4">
+        <v>11</v>
+      </c>
+      <c r="H4">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>4.75</v>
       </c>
       <c r="B5">
         <v>66</v>
@@ -686,10 +808,16 @@
       <c r="F5">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
-        <v>9</v>
+      <c r="G5">
+        <v>11</v>
+      </c>
+      <c r="H5">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>5</v>
       </c>
       <c r="B6">
         <v>66</v>
@@ -705,6 +833,12 @@
       </c>
       <c r="F6">
         <v>3</v>
+      </c>
+      <c r="G6">
+        <v>11</v>
+      </c>
+      <c r="H6">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
